--- a/data/StudentCoach.xlsx
+++ b/data/StudentCoach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CB63D2-E20C-415E-925E-87DE2F231F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAC7C35-E02C-49D3-83B8-DDF755D56C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="930" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Full Name</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>Division</t>
-  </si>
-  <si>
-    <t>Student Talent Committee, Student Coach</t>
-  </si>
-  <si>
-    <t>POD Staff and Administration,Student Talent  Committeem,Ambassador</t>
   </si>
   <si>
     <t>Student Coach</t>
@@ -126,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -134,45 +128,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +495,7 @@
         <v>45967</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -582,8 +547,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>2500001</v>
@@ -592,12 +557,7 @@
         <v>25000001</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/StudentCoach.xlsx
+++ b/data/StudentCoach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAC7C35-E02C-49D3-83B8-DDF755D56C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59250B-3D9D-45D2-BCA3-D1B46D86759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="156">
   <si>
     <t>Full Name</t>
   </si>
@@ -84,10 +84,415 @@
     <t>Student Coach</t>
   </si>
   <si>
-    <t>Admin Y</t>
-  </si>
-  <si>
     <t>POD Staff and Administration</t>
+  </si>
+  <si>
+    <t>General Admin</t>
+  </si>
+  <si>
+    <t>CELEST GOH ZI XUAN GOH</t>
+  </si>
+  <si>
+    <t>RYAN TAN YONG SOON TAN</t>
+  </si>
+  <si>
+    <t>NG YUEN TAO NG</t>
+  </si>
+  <si>
+    <t>CALWIN ANG WEI XUAN ANG</t>
+  </si>
+  <si>
+    <t>YAP MIN JN  GALVIN YAP</t>
+  </si>
+  <si>
+    <t>PIERRE LIM KIA EN LIM</t>
+  </si>
+  <si>
+    <t>KOK PING XIAN KOK</t>
+  </si>
+  <si>
+    <t>CHONG KAI LIN CHONG</t>
+  </si>
+  <si>
+    <t>JESSICA CHOY ING CHOY</t>
+  </si>
+  <si>
+    <t>ALICIA WONG YUAN QI WONG</t>
+  </si>
+  <si>
+    <t>LEK ER XUN LEK</t>
+  </si>
+  <si>
+    <t>LENG HONGJIE, EVANDER LENG</t>
+  </si>
+  <si>
+    <t>THEODOSIUS CHIN GUOJUN CHIN</t>
+  </si>
+  <si>
+    <t>LUKAS TAN LI ZHI TAN`</t>
+  </si>
+  <si>
+    <t>PNG SWEE HIANG PNG</t>
+  </si>
+  <si>
+    <t>BECKHAM BENNY ROSS ROSS</t>
+  </si>
+  <si>
+    <t>STAFFORD HO SHENG XIAN HO</t>
+  </si>
+  <si>
+    <t>JIN ZIYU JIN</t>
+  </si>
+  <si>
+    <t>WANG CONGYING WANG</t>
+  </si>
+  <si>
+    <t>JERALD LIM JUN CHUAN LIM</t>
+  </si>
+  <si>
+    <t>NASHA AFRINA ABDUL MUTALIB</t>
+  </si>
+  <si>
+    <t>VIC GERSUN MONTANO PAMPLONA PAMPLONA</t>
+  </si>
+  <si>
+    <t>BENJAMIN LAU REY JUN LAU</t>
+  </si>
+  <si>
+    <t>NUR ALISYA MAISARAH BINTE RUSLI RUSLI</t>
+  </si>
+  <si>
+    <t>MUHAMMED IRFAN BIN SHAFARUDIN BIN SHAFARUDIN</t>
+  </si>
+  <si>
+    <t>ALEXI KIZHAKKEPURATHU GEORGE GEORGE</t>
+  </si>
+  <si>
+    <t>JEREMIAH HE SHUO HE</t>
+  </si>
+  <si>
+    <t>ESHLYNE YAP SHUTING YAP</t>
+  </si>
+  <si>
+    <t>TRISTAN KOI JUN HAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIAH RAVI HARIHARAN </t>
+  </si>
+  <si>
+    <t>MUHAMMAD SHAQEEL BIN MOHAMMAD ISMAEL</t>
+  </si>
+  <si>
+    <t>NATHAN KONG YAN WEI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AKMAL BIN JEFREN</t>
+  </si>
+  <si>
+    <t>M GANESHKUMAAR</t>
+  </si>
+  <si>
+    <t>MOHAMMED RAIYAN BIN MOHAMMED SOPHIAN</t>
+  </si>
+  <si>
+    <t>HO CHIN YEE MELVIN</t>
+  </si>
+  <si>
+    <t>JADRIAN CHOO JUNYING</t>
+  </si>
+  <si>
+    <t>ANDY LAM ZI XIANG</t>
+  </si>
+  <si>
+    <t>WONG WEI MING</t>
+  </si>
+  <si>
+    <t>NIGEL LOKE YUE YANG</t>
+  </si>
+  <si>
+    <t>WON YONG HAN MALCOLM</t>
+  </si>
+  <si>
+    <t>ZENON KOH JIA EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEO HAO EN, NICHOLAS </t>
+  </si>
+  <si>
+    <t>CHONG QINYI SHERMAINE</t>
+  </si>
+  <si>
+    <t>LOW JUN JIE</t>
+  </si>
+  <si>
+    <t>TAN XUE XIAN</t>
+  </si>
+  <si>
+    <t>KOH GUAN SHENG</t>
+  </si>
+  <si>
+    <t>LE VINH TRONG</t>
+  </si>
+  <si>
+    <t>CHUA TENG HWEE KEITH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORHAFIZ BIN MOHD SHAHARUDDIN </t>
+  </si>
+  <si>
+    <t>LUA YAN MING</t>
+  </si>
+  <si>
+    <t>ROY FONG YEW MENG</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IKHWAN BIN MOHAMAD TAHIR</t>
+  </si>
+  <si>
+    <t>IRWIN LEONG</t>
+  </si>
+  <si>
+    <t>JUSTIN MENON</t>
+  </si>
+  <si>
+    <t>SEAH ZHENG YANG DARIEN</t>
+  </si>
+  <si>
+    <t>SIM JIA JUN</t>
+  </si>
+  <si>
+    <t>HENG GUO REN SHAWN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAADIL BIN MUHAMAD FAISAL</t>
+  </si>
+  <si>
+    <t>MANALANG ERIANNE KAYE MASBANG</t>
+  </si>
+  <si>
+    <t>ABELLERA ARACEL JOY BALBAIRA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MANSUR ALI BIN E N ABDUL JALEL</t>
+  </si>
+  <si>
+    <t>FEDORA LIM LI XUAN</t>
+  </si>
+  <si>
+    <t>ARO AARON LUCH JIMENEZ</t>
+  </si>
+  <si>
+    <t>WONG HUI SHAN</t>
+  </si>
+  <si>
+    <t>ONG ANGIE ONG</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Contract Expiry</t>
+  </si>
+  <si>
+    <t>SIT Email</t>
+  </si>
+  <si>
+    <t>2303213@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401554@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400971@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400892@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401574@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2301241@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402119@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2200116@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402492@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401356@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402042@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2003284@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2102399@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2302801@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401910@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400867@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2201218@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2403380@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2301451@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2201520@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2303239@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402043@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2301322@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402351@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401236@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400788@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400702@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2301554@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2302112@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2302648@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2303202@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400573@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400741@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400747@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400849@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2400959@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401035@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401055@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401077@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401472@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401652@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401732@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2401846@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402008@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402070@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2402880@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2403329@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2403383@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2403472@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2500210@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2500452@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2500477@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2500689@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2500970@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2500981@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2501067@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2501612@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>A101000@singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2501773@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2501931@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2502060@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2502337@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2502375@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2502880@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2503832@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2301439@sit.singaporetech.edu.sg</t>
   </si>
 </sst>
 </file>
@@ -132,12 +537,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +843,7 @@
     <col min="9" max="9" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,96 +874,1227 @@
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2500001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>25000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>2301451</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>93709168</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="2">
         <v>45967</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2402492</v>
-      </c>
-      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>2401554</v>
+        <v>2402492</v>
       </c>
       <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>2402043</v>
+        <v>2401554</v>
       </c>
       <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>2401236</v>
+        <v>2402043</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2500001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>25000001</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2401236</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2303213</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2401554</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2400971</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2400892</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2401574</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2301241</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2402119</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2200116</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2402492</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2401356</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2402042</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2003284</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2102399</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2302801</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2401910</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2400867</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2201218</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2403380</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2301451</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2201520</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2303239</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2402043</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2301322</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2402351</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2401236</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2400788</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2400702</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2301554</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2302112</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2302648</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2303202</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2400573</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2400741</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2400747</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2400849</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2400959</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2401035</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2401055</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2401077</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2401472</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2401652</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2401732</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2401846</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2402008</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2402070</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2402880</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2403329</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2403383</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2403472</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2500210</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2500452</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2500477</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2500689</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2500970</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2500981</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2501067</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2501612</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2501623</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2501773</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2501931</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2502060</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2502337</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2502375</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2502880</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2503832</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2301439</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73" s="5">
+        <v>45747</v>
+      </c>
+      <c r="M73" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/StudentCoach.xlsx
+++ b/data/StudentCoach.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59250B-3D9D-45D2-BCA3-D1B46D86759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68996071-814B-4CAC-A677-E7BC2016D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
   <si>
     <t>Full Name</t>
   </si>
@@ -52,30 +63,6 @@
   </si>
   <si>
     <t>Birthday</t>
-  </si>
-  <si>
-    <t>ENGINEERING</t>
-  </si>
-  <si>
-    <t>ELECTRONICS AND DATA</t>
-  </si>
-  <si>
-    <t>yingisfine</t>
-  </si>
-  <si>
-    <t>WANG CONGYING</t>
-  </si>
-  <si>
-    <t>JESSICA CHOY ING</t>
-  </si>
-  <si>
-    <t>RYAN TAN YONG SOON</t>
-  </si>
-  <si>
-    <t>VIC GERSUN MONTANO PAMPLONA</t>
-  </si>
-  <si>
-    <t>MUHAMMED IRFAN BIN SHAFARUDIN</t>
   </si>
   <si>
     <t>Division</t>
@@ -542,8 +529,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,7 +824,7 @@
     <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -859,7 +846,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -872,1229 +859,1548 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>2500001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>25000001</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>2301451</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>93709168</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45967</v>
+        <v>2303213</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2303213</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>45747</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2402492</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2401554</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2401554</v>
+      </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>45747</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2401554</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2400971</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2400971</v>
+      </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>45747</v>
+      </c>
+      <c r="M5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2402043</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2400892</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2400892</v>
+      </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>45747</v>
+      </c>
+      <c r="M6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2401236</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2401574</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2401574</v>
+      </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45747</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>2303213</v>
+        <v>2301241</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2301241</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>45747</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>2401554</v>
+        <v>2402119</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2402119</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>45747</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>2400971</v>
+        <v>2200116</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2200116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>45747</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>2400892</v>
+        <v>2402492</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2402492</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>45747</v>
       </c>
       <c r="M11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>2401574</v>
+        <v>2401356</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2401356</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>45747</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>2301241</v>
+        <v>2402042</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2402042</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>45747</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>2402119</v>
+        <v>2003284</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2003284</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>45747</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>2200116</v>
+        <v>2102399</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2102399</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>45747</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>2402492</v>
+        <v>2302801</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2302801</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>45747</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>2401356</v>
+        <v>2401910</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2401910</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>45747</v>
       </c>
       <c r="M17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>2402042</v>
+        <v>2400867</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2400867</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>45747</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>2003284</v>
+        <v>2201218</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2201218</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>45747</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>2102399</v>
+        <v>2403380</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2403380</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>45747</v>
       </c>
       <c r="M20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>2302801</v>
+        <v>2301451</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2301451</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>45747</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>2401910</v>
+        <v>2201520</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2201520</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>45747</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>2400867</v>
+        <v>2303239</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2303239</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>45747</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>2201218</v>
+        <v>2402043</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2402043</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>45747</v>
       </c>
       <c r="M24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>2403380</v>
+        <v>2301322</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2301322</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>45747</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>2301451</v>
+        <v>2402351</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2402351</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>45747</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>2201520</v>
+        <v>2401236</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2401236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>45747</v>
       </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
-        <v>2303239</v>
+        <v>2400788</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2400788</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>45747</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
-        <v>2402043</v>
+        <v>2400702</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2400702</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>45747</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1">
-        <v>2301322</v>
+        <v>2301554</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2301554</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>45747</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1">
-        <v>2402351</v>
+        <v>2302112</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2302112</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5">
+        <v>2</v>
+      </c>
+      <c r="L31" s="4">
         <v>45747</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
-        <v>2401236</v>
+        <v>2302648</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2302648</v>
+      </c>
+      <c r="J32" t="s">
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" s="5">
+        <v>2</v>
+      </c>
+      <c r="L32" s="4">
         <v>45747</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
-        <v>2400788</v>
+        <v>2303202</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2303202</v>
+      </c>
+      <c r="J33" t="s">
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5">
+        <v>2</v>
+      </c>
+      <c r="L33" s="4">
         <v>45747</v>
       </c>
       <c r="M33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
-        <v>2400702</v>
+        <v>2400573</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2400573</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" s="5">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4">
         <v>45747</v>
       </c>
       <c r="M34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1">
-        <v>2301554</v>
+        <v>2400741</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2400741</v>
+      </c>
+      <c r="J35" t="s">
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" s="5">
+        <v>2</v>
+      </c>
+      <c r="L35" s="4">
         <v>45747</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1">
-        <v>2302112</v>
+        <v>2400747</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2400747</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>45747</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1">
-        <v>2302648</v>
+        <v>2400849</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2400849</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>45747</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1">
-        <v>2303202</v>
+        <v>2400959</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2400959</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
       </c>
       <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>45747</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1">
-        <v>2400573</v>
+        <v>2401035</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2401035</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>45747</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1">
-        <v>2400741</v>
+        <v>2401055</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2401055</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
       </c>
       <c r="K40">
         <v>2</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>45747</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1">
-        <v>2400747</v>
+        <v>2401077</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2401077</v>
+      </c>
+      <c r="J41" t="s">
+        <v>10</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>45747</v>
       </c>
       <c r="M41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1">
-        <v>2400849</v>
+        <v>2401472</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2401472</v>
+      </c>
+      <c r="J42" t="s">
+        <v>10</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>45747</v>
       </c>
       <c r="M42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1">
-        <v>2400959</v>
+        <v>2401652</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2401652</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>45747</v>
       </c>
       <c r="M43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1">
-        <v>2401035</v>
+        <v>2401732</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2401732</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
       </c>
       <c r="K44">
         <v>2</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>45747</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1">
-        <v>2401055</v>
+        <v>2401846</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2401846</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
       </c>
       <c r="K45">
         <v>2</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>45747</v>
       </c>
       <c r="M45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1">
-        <v>2401077</v>
+        <v>2402008</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2402008</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
       </c>
       <c r="K46">
         <v>2</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>45747</v>
       </c>
       <c r="M46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1">
-        <v>2401472</v>
+        <v>2402070</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2402070</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
       </c>
       <c r="K47">
         <v>2</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>45747</v>
       </c>
       <c r="M47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1">
-        <v>2401652</v>
+        <v>2402880</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2402880</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>45747</v>
       </c>
       <c r="M48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1">
-        <v>2401732</v>
+        <v>2403329</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2403329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>10</v>
       </c>
       <c r="K49">
         <v>2</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>45747</v>
       </c>
       <c r="M49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" s="1">
-        <v>2401846</v>
+        <v>2403383</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2403383</v>
+      </c>
+      <c r="J50" t="s">
+        <v>10</v>
       </c>
       <c r="K50">
         <v>2</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>45747</v>
       </c>
       <c r="M50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1">
-        <v>2402008</v>
+        <v>2403472</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2403472</v>
+      </c>
+      <c r="J51" t="s">
+        <v>10</v>
       </c>
       <c r="K51">
         <v>2</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="4">
         <v>45747</v>
       </c>
       <c r="M51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1">
-        <v>2402070</v>
+        <v>2500210</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2500210</v>
+      </c>
+      <c r="J52" t="s">
+        <v>10</v>
       </c>
       <c r="K52">
         <v>2</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>45747</v>
       </c>
       <c r="M52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1">
-        <v>2402880</v>
+        <v>2500452</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2500452</v>
+      </c>
+      <c r="J53" t="s">
+        <v>10</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>45747</v>
       </c>
       <c r="M53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
-        <v>2403329</v>
+        <v>2500477</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2500477</v>
+      </c>
+      <c r="J54" t="s">
+        <v>10</v>
       </c>
       <c r="K54">
         <v>2</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>45747</v>
       </c>
       <c r="M54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1">
-        <v>2403383</v>
+        <v>2500689</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2500689</v>
+      </c>
+      <c r="J55" t="s">
+        <v>10</v>
       </c>
       <c r="K55">
         <v>2</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="4">
         <v>45747</v>
       </c>
       <c r="M55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1">
-        <v>2403472</v>
+        <v>2500970</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2500970</v>
+      </c>
+      <c r="J56" t="s">
+        <v>10</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>45747</v>
       </c>
       <c r="M56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1">
-        <v>2500210</v>
+        <v>2500981</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2500981</v>
+      </c>
+      <c r="J57" t="s">
+        <v>10</v>
       </c>
       <c r="K57">
         <v>2</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>45747</v>
       </c>
       <c r="M57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1">
-        <v>2500452</v>
+        <v>2501067</v>
+      </c>
+      <c r="F58" s="5">
+        <v>2501067</v>
+      </c>
+      <c r="J58" t="s">
+        <v>10</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="4">
         <v>45747</v>
       </c>
       <c r="M58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1">
-        <v>2500477</v>
+        <v>2501612</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2501612</v>
+      </c>
+      <c r="J59" t="s">
+        <v>10</v>
       </c>
       <c r="K59">
         <v>2</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>45747</v>
       </c>
       <c r="M59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
-        <v>2500689</v>
+        <v>2501623</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2501623</v>
+      </c>
+      <c r="J60" t="s">
+        <v>10</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="4">
         <v>45747</v>
       </c>
       <c r="M60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1">
-        <v>2500970</v>
+        <v>2501773</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2501773</v>
+      </c>
+      <c r="J61" t="s">
+        <v>10</v>
       </c>
       <c r="K61">
         <v>2</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="4">
         <v>45747</v>
       </c>
       <c r="M61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1">
-        <v>2500981</v>
+        <v>2501931</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2501931</v>
+      </c>
+      <c r="J62" t="s">
+        <v>10</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="4">
         <v>45747</v>
       </c>
       <c r="M62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1">
-        <v>2501067</v>
+        <v>2502060</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2502060</v>
+      </c>
+      <c r="J63" t="s">
+        <v>10</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="4">
         <v>45747</v>
       </c>
       <c r="M63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1">
-        <v>2501612</v>
+        <v>2502337</v>
+      </c>
+      <c r="F64" s="5">
+        <v>2502337</v>
+      </c>
+      <c r="J64" t="s">
+        <v>10</v>
       </c>
       <c r="K64">
         <v>2</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="4">
         <v>45747</v>
       </c>
       <c r="M64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1">
-        <v>2501623</v>
+        <v>2502375</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2502375</v>
+      </c>
+      <c r="J65" t="s">
+        <v>10</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="4">
         <v>45747</v>
       </c>
       <c r="M65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1">
-        <v>2501773</v>
+        <v>2502880</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2502880</v>
+      </c>
+      <c r="J66" t="s">
+        <v>10</v>
       </c>
       <c r="K66">
         <v>2</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="4">
         <v>45747</v>
       </c>
       <c r="M66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1">
-        <v>2501931</v>
+        <v>2503832</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2503832</v>
+      </c>
+      <c r="J67" t="s">
+        <v>10</v>
       </c>
       <c r="K67">
         <v>2</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="4">
         <v>45747</v>
       </c>
       <c r="M67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1">
-        <v>2502060</v>
+        <v>2301439</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2301439</v>
+      </c>
+      <c r="J68" t="s">
+        <v>10</v>
       </c>
       <c r="K68">
         <v>2</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="4">
         <v>45747</v>
       </c>
       <c r="M68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="1">
-        <v>2502337</v>
-      </c>
-      <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69" s="5">
-        <v>45747</v>
-      </c>
-      <c r="M69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2502375</v>
-      </c>
-      <c r="K70">
-        <v>2</v>
-      </c>
-      <c r="L70" s="5">
-        <v>45747</v>
-      </c>
-      <c r="M70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="1">
-        <v>2502880</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71" s="5">
-        <v>45747</v>
-      </c>
-      <c r="M71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2503832</v>
-      </c>
-      <c r="K72">
-        <v>2</v>
-      </c>
-      <c r="L72" s="5">
-        <v>45747</v>
-      </c>
-      <c r="M72" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2301439</v>
-      </c>
-      <c r="K73">
-        <v>2</v>
-      </c>
-      <c r="L73" s="5">
-        <v>45747</v>
-      </c>
-      <c r="M73" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/StudentCoach.xlsx
+++ b/data/StudentCoach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68996071-814B-4CAC-A677-E7BC2016D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988BE4B-2DDE-4AB0-93C1-86676216F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,13 +524,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,7 +813,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +823,7 @@
     <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -846,7 +845,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -876,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>2500001</v>
-      </c>
-      <c r="F2" s="5">
-        <v>25000001</v>
+        <v>2501</v>
+      </c>
+      <c r="F2">
+        <v>2501</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -892,7 +891,7 @@
       <c r="B3" s="1">
         <v>2303213</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>2303213</v>
       </c>
       <c r="J3" t="s">
@@ -915,7 +914,7 @@
       <c r="B4" s="1">
         <v>2401554</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>2401554</v>
       </c>
       <c r="J4" t="s">
@@ -938,7 +937,7 @@
       <c r="B5" s="1">
         <v>2400971</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>2400971</v>
       </c>
       <c r="J5" t="s">
@@ -961,7 +960,7 @@
       <c r="B6" s="1">
         <v>2400892</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>2400892</v>
       </c>
       <c r="J6" t="s">
@@ -984,7 +983,7 @@
       <c r="B7" s="1">
         <v>2401574</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>2401574</v>
       </c>
       <c r="J7" t="s">
@@ -1007,7 +1006,7 @@
       <c r="B8" s="1">
         <v>2301241</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>2301241</v>
       </c>
       <c r="J8" t="s">
@@ -1030,7 +1029,7 @@
       <c r="B9" s="1">
         <v>2402119</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>2402119</v>
       </c>
       <c r="J9" t="s">
@@ -1053,7 +1052,7 @@
       <c r="B10" s="1">
         <v>2200116</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>2200116</v>
       </c>
       <c r="J10" t="s">
@@ -1076,7 +1075,7 @@
       <c r="B11" s="1">
         <v>2402492</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>2402492</v>
       </c>
       <c r="J11" t="s">
@@ -1099,7 +1098,7 @@
       <c r="B12" s="1">
         <v>2401356</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>2401356</v>
       </c>
       <c r="J12" t="s">
@@ -1122,7 +1121,7 @@
       <c r="B13" s="1">
         <v>2402042</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>2402042</v>
       </c>
       <c r="J13" t="s">
@@ -1145,7 +1144,7 @@
       <c r="B14" s="1">
         <v>2003284</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>2003284</v>
       </c>
       <c r="J14" t="s">
@@ -1168,7 +1167,7 @@
       <c r="B15" s="1">
         <v>2102399</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>2102399</v>
       </c>
       <c r="J15" t="s">
@@ -1191,7 +1190,7 @@
       <c r="B16" s="1">
         <v>2302801</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>2302801</v>
       </c>
       <c r="J16" t="s">
@@ -1214,7 +1213,7 @@
       <c r="B17" s="1">
         <v>2401910</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>2401910</v>
       </c>
       <c r="J17" t="s">
@@ -1237,7 +1236,7 @@
       <c r="B18" s="1">
         <v>2400867</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>2400867</v>
       </c>
       <c r="J18" t="s">
@@ -1260,7 +1259,7 @@
       <c r="B19" s="1">
         <v>2201218</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>2201218</v>
       </c>
       <c r="J19" t="s">
@@ -1283,7 +1282,7 @@
       <c r="B20" s="1">
         <v>2403380</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>2403380</v>
       </c>
       <c r="J20" t="s">
@@ -1306,7 +1305,7 @@
       <c r="B21" s="1">
         <v>2301451</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>2301451</v>
       </c>
       <c r="J21" t="s">
@@ -1329,7 +1328,7 @@
       <c r="B22" s="1">
         <v>2201520</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>2201520</v>
       </c>
       <c r="J22" t="s">
@@ -1352,7 +1351,7 @@
       <c r="B23" s="1">
         <v>2303239</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>2303239</v>
       </c>
       <c r="J23" t="s">
@@ -1375,7 +1374,7 @@
       <c r="B24" s="1">
         <v>2402043</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>2402043</v>
       </c>
       <c r="J24" t="s">
@@ -1398,7 +1397,7 @@
       <c r="B25" s="1">
         <v>2301322</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>2301322</v>
       </c>
       <c r="J25" t="s">
@@ -1421,7 +1420,7 @@
       <c r="B26" s="1">
         <v>2402351</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>2402351</v>
       </c>
       <c r="J26" t="s">
@@ -1444,7 +1443,7 @@
       <c r="B27" s="1">
         <v>2401236</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>2401236</v>
       </c>
       <c r="J27" t="s">
@@ -1467,7 +1466,7 @@
       <c r="B28" s="1">
         <v>2400788</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28">
         <v>2400788</v>
       </c>
       <c r="J28" t="s">
@@ -1490,7 +1489,7 @@
       <c r="B29" s="1">
         <v>2400702</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>2400702</v>
       </c>
       <c r="J29" t="s">
@@ -1513,7 +1512,7 @@
       <c r="B30" s="1">
         <v>2301554</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <v>2301554</v>
       </c>
       <c r="J30" t="s">
@@ -1536,7 +1535,7 @@
       <c r="B31" s="1">
         <v>2302112</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>2302112</v>
       </c>
       <c r="J31" t="s">
@@ -1559,7 +1558,7 @@
       <c r="B32" s="1">
         <v>2302648</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>2302648</v>
       </c>
       <c r="J32" t="s">
@@ -1582,7 +1581,7 @@
       <c r="B33" s="1">
         <v>2303202</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>2303202</v>
       </c>
       <c r="J33" t="s">
@@ -1605,7 +1604,7 @@
       <c r="B34" s="1">
         <v>2400573</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>2400573</v>
       </c>
       <c r="J34" t="s">
@@ -1628,7 +1627,7 @@
       <c r="B35" s="1">
         <v>2400741</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>2400741</v>
       </c>
       <c r="J35" t="s">
@@ -1651,7 +1650,7 @@
       <c r="B36" s="1">
         <v>2400747</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>2400747</v>
       </c>
       <c r="J36" t="s">
@@ -1674,7 +1673,7 @@
       <c r="B37" s="1">
         <v>2400849</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>2400849</v>
       </c>
       <c r="J37" t="s">
@@ -1697,7 +1696,7 @@
       <c r="B38" s="1">
         <v>2400959</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>2400959</v>
       </c>
       <c r="J38" t="s">
@@ -1720,7 +1719,7 @@
       <c r="B39" s="1">
         <v>2401035</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>2401035</v>
       </c>
       <c r="J39" t="s">
@@ -1743,7 +1742,7 @@
       <c r="B40" s="1">
         <v>2401055</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>2401055</v>
       </c>
       <c r="J40" t="s">
@@ -1766,7 +1765,7 @@
       <c r="B41" s="1">
         <v>2401077</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>2401077</v>
       </c>
       <c r="J41" t="s">
@@ -1789,7 +1788,7 @@
       <c r="B42" s="1">
         <v>2401472</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>2401472</v>
       </c>
       <c r="J42" t="s">
@@ -1812,7 +1811,7 @@
       <c r="B43" s="1">
         <v>2401652</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>2401652</v>
       </c>
       <c r="J43" t="s">
@@ -1835,7 +1834,7 @@
       <c r="B44" s="1">
         <v>2401732</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44">
         <v>2401732</v>
       </c>
       <c r="J44" t="s">
@@ -1858,7 +1857,7 @@
       <c r="B45" s="1">
         <v>2401846</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>2401846</v>
       </c>
       <c r="J45" t="s">
@@ -1881,7 +1880,7 @@
       <c r="B46" s="1">
         <v>2402008</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>2402008</v>
       </c>
       <c r="J46" t="s">
@@ -1904,7 +1903,7 @@
       <c r="B47" s="1">
         <v>2402070</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47">
         <v>2402070</v>
       </c>
       <c r="J47" t="s">
@@ -1927,7 +1926,7 @@
       <c r="B48" s="1">
         <v>2402880</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48">
         <v>2402880</v>
       </c>
       <c r="J48" t="s">
@@ -1950,7 +1949,7 @@
       <c r="B49" s="1">
         <v>2403329</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49">
         <v>2403329</v>
       </c>
       <c r="J49" t="s">
@@ -1973,7 +1972,7 @@
       <c r="B50" s="1">
         <v>2403383</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50">
         <v>2403383</v>
       </c>
       <c r="J50" t="s">
@@ -1996,7 +1995,7 @@
       <c r="B51" s="1">
         <v>2403472</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51">
         <v>2403472</v>
       </c>
       <c r="J51" t="s">
@@ -2019,7 +2018,7 @@
       <c r="B52" s="1">
         <v>2500210</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52">
         <v>2500210</v>
       </c>
       <c r="J52" t="s">
@@ -2042,7 +2041,7 @@
       <c r="B53" s="1">
         <v>2500452</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>2500452</v>
       </c>
       <c r="J53" t="s">
@@ -2065,7 +2064,7 @@
       <c r="B54" s="1">
         <v>2500477</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54">
         <v>2500477</v>
       </c>
       <c r="J54" t="s">
@@ -2088,7 +2087,7 @@
       <c r="B55" s="1">
         <v>2500689</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55">
         <v>2500689</v>
       </c>
       <c r="J55" t="s">
@@ -2111,7 +2110,7 @@
       <c r="B56" s="1">
         <v>2500970</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56">
         <v>2500970</v>
       </c>
       <c r="J56" t="s">
@@ -2134,7 +2133,7 @@
       <c r="B57" s="1">
         <v>2500981</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>2500981</v>
       </c>
       <c r="J57" t="s">
@@ -2157,7 +2156,7 @@
       <c r="B58" s="1">
         <v>2501067</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58">
         <v>2501067</v>
       </c>
       <c r="J58" t="s">
@@ -2180,7 +2179,7 @@
       <c r="B59" s="1">
         <v>2501612</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59">
         <v>2501612</v>
       </c>
       <c r="J59" t="s">
@@ -2203,7 +2202,7 @@
       <c r="B60" s="1">
         <v>2501623</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60">
         <v>2501623</v>
       </c>
       <c r="J60" t="s">
@@ -2226,7 +2225,7 @@
       <c r="B61" s="1">
         <v>2501773</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>2501773</v>
       </c>
       <c r="J61" t="s">
@@ -2249,7 +2248,7 @@
       <c r="B62" s="1">
         <v>2501931</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>2501931</v>
       </c>
       <c r="J62" t="s">
@@ -2272,7 +2271,7 @@
       <c r="B63" s="1">
         <v>2502060</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>2502060</v>
       </c>
       <c r="J63" t="s">
@@ -2295,7 +2294,7 @@
       <c r="B64" s="1">
         <v>2502337</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64">
         <v>2502337</v>
       </c>
       <c r="J64" t="s">
@@ -2318,7 +2317,7 @@
       <c r="B65" s="1">
         <v>2502375</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65">
         <v>2502375</v>
       </c>
       <c r="J65" t="s">
@@ -2341,7 +2340,7 @@
       <c r="B66" s="1">
         <v>2502880</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66">
         <v>2502880</v>
       </c>
       <c r="J66" t="s">
@@ -2364,7 +2363,7 @@
       <c r="B67" s="1">
         <v>2503832</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67">
         <v>2503832</v>
       </c>
       <c r="J67" t="s">
@@ -2387,7 +2386,7 @@
       <c r="B68" s="1">
         <v>2301439</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68">
         <v>2301439</v>
       </c>
       <c r="J68" t="s">

--- a/data/StudentCoach.xlsx
+++ b/data/StudentCoach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988BE4B-2DDE-4AB0-93C1-86676216F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287764BB-E0A0-4000-AEE6-8337F6B2D5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,9 +455,6 @@
     <t>2501612@sit.singaporetech.edu.sg</t>
   </si>
   <si>
-    <t>A101000@singaporetech.edu.sg</t>
-  </si>
-  <si>
     <t>2501773@sit.singaporetech.edu.sg</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>2301439@sit.singaporetech.edu.sg</t>
+  </si>
+  <si>
+    <t>2501623@sit.singaporetech.edu.sg</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,14 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,17 +529,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,13 +823,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D54" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
@@ -2214,8 +2225,8 @@
       <c r="L60" s="4">
         <v>45747</v>
       </c>
-      <c r="M60" t="s">
-        <v>139</v>
+      <c r="M60" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -2238,7 +2249,7 @@
         <v>45747</v>
       </c>
       <c r="M61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -2261,7 +2272,7 @@
         <v>45747</v>
       </c>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -2284,7 +2295,7 @@
         <v>45747</v>
       </c>
       <c r="M63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -2307,7 +2318,7 @@
         <v>45747</v>
       </c>
       <c r="M64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -2330,7 +2341,7 @@
         <v>45747</v>
       </c>
       <c r="M65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -2353,7 +2364,7 @@
         <v>45747</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -2376,7 +2387,7 @@
         <v>45747</v>
       </c>
       <c r="M67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -2399,7 +2410,7 @@
         <v>45747</v>
       </c>
       <c r="M68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
